--- a/nr-add-mapping-mos/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$89</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3036" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3331" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T10:57:32+00:00</t>
+    <t>2025-01-02T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1410,6 +1410,159 @@
   </si>
   <si>
     <t>ContactPoint</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.id</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.extension:emailType</t>
+  </si>
+  <si>
+    <t>emailType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type}
+</t>
+  </si>
+  <si>
+    <t>Type of email | type de messagerie électronique</t>
+  </si>
+  <si>
+    <t>Extension on the ContactPoint datatype. This extension allows to specify the type of mail used to contact the person (MSSsanté|Apicrypt|OSM|Autre).</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.system</t>
+  </si>
+  <si>
+    <t>phone | fax | email | pager | url | sms | other</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
+  </si>
+  <si>
+    <t>Telecommunications form for contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cpt-2
+</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.canal</t>
+  </si>
+  <si>
+    <t>XTN.3</t>
+  </si>
+  <si>
+    <t>./scheme</t>
+  </si>
+  <si>
+    <t>./ContactPointType</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.value</t>
+  </si>
+  <si>
+    <t>The actual contact point details</t>
+  </si>
+  <si>
+    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
+  </si>
+  <si>
+    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
+  </si>
+  <si>
+    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
+  </si>
+  <si>
+    <t>ContactPoint.value</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.adresseTelecom</t>
+  </si>
+  <si>
+    <t>XTN.1 (or XTN.12)</t>
+  </si>
+  <si>
+    <t>./url</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | mobile - purpose of this contact point</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for the contact point.</t>
+  </si>
+  <si>
+    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
+  </si>
+  <si>
+    <t>Use of contact point.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
+  </si>
+  <si>
+    <t>ContactPoint.use</t>
+  </si>
+  <si>
+    <t>SituationExercice.telecommunication.utilisation</t>
+  </si>
+  <si>
+    <t>XTN.2 - but often indicated by field</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>./ContactPointPurpose</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">positiveInt
+</t>
+  </si>
+  <si>
+    <t>Specify preferred order of use (1 = highest)</t>
+  </si>
+  <si>
+    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
+  </si>
+  <si>
+    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
+  </si>
+  <si>
+    <t>ContactPoint.rank</t>
+  </si>
+  <si>
+    <t>PractitionerRole.telecom.period</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when the contact point was/is in use.</t>
+  </si>
+  <si>
+    <t>ContactPoint.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>PractitionerRole.telecom:mailbox-mss</t>
@@ -1899,7 +2052,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO81"/>
+  <dimension ref="A1:AO89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -9457,11 +9610,9 @@
         <v>450</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9470,7 +9621,7 @@
         <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9482,18 +9633,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>452</v>
+        <v>104</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>453</v>
+        <v>105</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>442</v>
+        <v>106</v>
       </c>
       <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>443</v>
-      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>78</v>
       </c>
@@ -9541,31 +9690,31 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>439</v>
+        <v>107</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>212</v>
+        <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>445</v>
+        <v>78</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>447</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>448</v>
+        <v>108</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9573,24 +9722,24 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>78</v>
@@ -9599,16 +9748,16 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>456</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>457</v>
+        <v>112</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>458</v>
+        <v>113</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>459</v>
+        <v>114</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9646,19 +9795,19 @@
         <v>78</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>455</v>
+        <v>118</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9670,7 +9819,7 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>78</v>
@@ -9679,7 +9828,7 @@
         <v>78</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9690,12 +9839,14 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C67" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D67" t="s" s="2">
         <v>78</v>
       </c>
@@ -9716,13 +9867,13 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>104</v>
+        <v>454</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>105</v>
+        <v>455</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>106</v>
+        <v>456</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9773,19 +9924,19 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>78</v>
@@ -9794,7 +9945,7 @@
         <v>78</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -9805,21 +9956,21 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>78</v>
@@ -9828,20 +9979,18 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>111</v>
+        <v>179</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>112</v>
+        <v>458</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>78</v>
@@ -9866,13 +10015,13 @@
         <v>78</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>78</v>
@@ -9890,31 +10039,31 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>118</v>
+        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>78</v>
+        <v>464</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>78</v>
+        <v>465</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>108</v>
+        <v>466</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>78</v>
+        <v>467</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>78</v>
@@ -9922,45 +10071,45 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>464</v>
+        <v>78</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
         <v>91</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>114</v>
+        <v>471</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>231</v>
+        <v>472</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
@@ -10009,31 +10158,31 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>78</v>
+        <v>474</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>78</v>
+        <v>475</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>202</v>
+        <v>476</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>78</v>
+        <v>294</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>78</v>
@@ -10041,10 +10190,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10055,28 +10204,32 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>179</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10103,10 +10256,10 @@
         <v>257</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>472</v>
+        <v>483</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10124,13 +10277,13 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>78</v>
@@ -10139,16 +10292,16 @@
         <v>102</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>460</v>
+        <v>487</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>78</v>
@@ -10156,10 +10309,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10179,18 +10332,20 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>328</v>
+        <v>490</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>491</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>493</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>78</v>
@@ -10239,7 +10394,7 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10257,10 +10412,10 @@
         <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>460</v>
+        <v>108</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>78</v>
@@ -10271,10 +10426,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10294,20 +10449,18 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>477</v>
+        <v>297</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>478</v>
+        <v>496</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10356,7 +10509,7 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10374,13 +10527,13 @@
         <v>78</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>78</v>
+        <v>202</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>460</v>
+        <v>499</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>78</v>
@@ -10388,12 +10541,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="C73" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>501</v>
+      </c>
       <c r="D73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10402,7 +10557,7 @@
         <v>79</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>78</v>
@@ -10414,18 +10569,18 @@
         <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>78</v>
       </c>
@@ -10473,31 +10628,31 @@
         <v>78</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>78</v>
+        <v>212</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>102</v>
+        <v>445</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>78</v>
+        <v>504</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>78</v>
@@ -10505,10 +10660,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10531,15 +10686,17 @@
         <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>78</v>
@@ -10588,7 +10745,7 @@
         <v>78</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10609,7 +10766,7 @@
         <v>78</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>78</v>
@@ -10620,10 +10777,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10735,10 +10892,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10852,14 +11009,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>464</v>
+        <v>514</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10881,10 +11038,10 @@
         <v>111</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>465</v>
+        <v>515</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>466</v>
+        <v>516</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>114</v>
@@ -10939,7 +11096,7 @@
         <v>78</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>467</v>
+        <v>517</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -10971,10 +11128,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10982,10 +11139,10 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>78</v>
@@ -10997,13 +11154,13 @@
         <v>78</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>104</v>
+        <v>179</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11030,13 +11187,13 @@
         <v>78</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>78</v>
+        <v>521</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>78</v>
+        <v>522</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>78</v>
@@ -11054,13 +11211,13 @@
         <v>78</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>78</v>
@@ -11075,7 +11232,7 @@
         <v>78</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>108</v>
+        <v>510</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>78</v>
@@ -11086,10 +11243,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11112,13 +11269,13 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>494</v>
+        <v>524</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -11169,7 +11326,7 @@
         <v>78</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>493</v>
+        <v>523</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11190,7 +11347,7 @@
         <v>78</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>78</v>
@@ -11201,10 +11358,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11215,10 +11372,10 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>78</v>
@@ -11227,15 +11384,17 @@
         <v>78</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>104</v>
+        <v>527</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>529</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>530</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>78</v>
@@ -11284,7 +11443,7 @@
         <v>78</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11305,7 +11464,7 @@
         <v>78</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>78</v>
@@ -11316,10 +11475,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11330,10 +11489,10 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>78</v>
@@ -11342,18 +11501,18 @@
         <v>78</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>78</v>
       </c>
@@ -11401,13 +11560,13 @@
         <v>78</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>78</v>
@@ -11422,17 +11581,945 @@
         <v>78</v>
       </c>
       <c r="AM81" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="AN81" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO81" t="s" s="2">
+      <c r="AN83" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O84" s="2"/>
+      <c r="P84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="P85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO89" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO81">
+  <autoFilter ref="A1:AO89">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11442,7 +12529,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI80">
+  <conditionalFormatting sqref="A2:AI88">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/nr-add-mapping-mos/ig/StructureDefinition-as-dr-practitionerrole.xlsx
+++ b/nr-add-mapping-mos/ig/StructureDefinition-as-dr-practitionerrole.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T15:56:45+00:00</t>
+    <t>2025-01-03T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1392,7 +1392,7 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
-    <t>pattern:system}
+    <t>value:system}
 exists:extension('https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point-email-type')}</t>
   </si>
   <si>
